--- a/input/1_client_project.xlsx
+++ b/input/1_client_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Santos Finck\Documents\GitHub\Auto-Fill-Word-Form\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1431C1BB-B447-4344-BA1A-4A9DA02825F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A1D4C9-FD3D-403E-8709-F5A75AB597C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,61 +25,61 @@
     <t>02/2021</t>
   </si>
   <si>
-    <t>DADOS DO CLIENTE</t>
-  </si>
-  <si>
-    <t>DADOS DO PROJETO</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
     <t>CNPJ/CPF</t>
   </si>
   <si>
-    <t>Solicitante</t>
-  </si>
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>E-mail de contato</t>
-  </si>
-  <si>
-    <t>Identificação do projeto</t>
-  </si>
-  <si>
-    <t>Proposta comercial</t>
-  </si>
-  <si>
-    <t>Local da amostragem</t>
-  </si>
-  <si>
-    <t>Plano de amostragem</t>
-  </si>
-  <si>
-    <t>Fraport Brasil S.A.</t>
-  </si>
-  <si>
-    <t>27.059.460/0001-41</t>
-  </si>
-  <si>
-    <t>Patrícia Schacker dos Anjos</t>
-  </si>
-  <si>
-    <t>Av. Severo Dullius, 90010 - Porto Alegre/RS</t>
-  </si>
-  <si>
-    <t>p.schacker@fraport-brasil.com</t>
-  </si>
-  <si>
-    <t>FRP_POA_IC1_0017A</t>
-  </si>
-  <si>
-    <t>FRP_PA_GA1_1415</t>
-  </si>
-  <si>
-    <t>Área 2 - Sítio 11 - Campo antenas, central resíduos, cloaca</t>
+    <t>einer Kundenamen</t>
+  </si>
+  <si>
+    <t>00.000.000/0000-00</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Requester</t>
+  </si>
+  <si>
+    <t>Peter Müller</t>
+  </si>
+  <si>
+    <t>The yellow brick road, 1939 - Los Angeles/US</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>eineE-Mail@einDomain.com</t>
+  </si>
+  <si>
+    <t>CLIENT DATA</t>
+  </si>
+  <si>
+    <t>PROJECT DATA</t>
+  </si>
+  <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <t>Business proposal</t>
+  </si>
+  <si>
+    <t>Sampling site</t>
+  </si>
+  <si>
+    <t>Sampling plan</t>
+  </si>
+  <si>
+    <t>XXX_GOI_XX1_XXXXX</t>
+  </si>
+  <si>
+    <t>XXX_GOI_XXX_XXXX</t>
+  </si>
+  <si>
+    <t>ein am Ort erinnerende Name</t>
   </si>
 </sst>
 </file>
@@ -593,13 +593,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -964,103 +964,103 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>0</v>
       </c>
     </row>

--- a/input/1_client_project.xlsx
+++ b/input/1_client_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Santos Finck\Documents\GitHub\Auto-Fill-Word-Form\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A1D4C9-FD3D-403E-8709-F5A75AB597C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29450DFA-13FE-498A-9C8B-F354F3601FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <t>XXX_GOI_XXX_XXXX</t>
   </si>
   <si>
-    <t>ein am Ort erinnerende Name</t>
+    <t>ein am Ort erinnerender Name</t>
   </si>
 </sst>
 </file>
@@ -964,7 +964,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
